--- a/DbLayouts/L2-業務作業/CustDataCtrl.xlsx
+++ b/DbLayouts/L2-業務作業/CustDataCtrl.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4852C2-8445-4F68-90B1-0F93252C892A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -214,47 +213,73 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CustNo = ,AND Enable=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustDataCtrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>結清戶個資控管檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustUKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustUKey = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Y:是
 N:否</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Enable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo = ,AND Enable=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustDataCtrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>結清戶個資控管檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCustUKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustUKey = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key ID</t>
+    <t>申請記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:客戶申請
+1:滿五年自動寫入
+2:解除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplMark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -474,7 +499,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,23 +590,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -617,23 +625,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -809,11 +800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -833,10 +824,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -846,7 +837,7 @@
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>22</v>
@@ -950,7 +941,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="18">
         <v>7</v>
@@ -982,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>30</v>
@@ -995,41 +986,45 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
       <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
+      <c r="G12" s="18" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="18">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -1039,10 +1034,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>11</v>
@@ -1056,13 +1051,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="E15" s="18">
         <v>6</v>
@@ -1071,20 +1066,38 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="18">
+        <v>8</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="A17" s="18">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="18">
+        <v>6</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
@@ -1591,6 +1604,24 @@
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1609,7 +1640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1641,15 +1672,15 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L2-業務作業/CustDataCtrl.xlsx
+++ b/DbLayouts/L2-業務作業/CustDataCtrl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20916" windowHeight="8472"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -258,21 +258,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0:客戶申請
-1:滿五年自動寫入
+    <t>ApplMark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:客戶申請(案件申請時丟錯誤訊息)
+1:滿五年自動寫入(案件申請自動刪除)
 2:解除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplMark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reason</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -804,7 +804,7 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -989,12 +989,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>46</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1015,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>43</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="18">
         <v>6</v>

--- a/DbLayouts/L2-業務作業/CustDataCtrl.xlsx
+++ b/DbLayouts/L2-業務作業/CustDataCtrl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20916" windowHeight="8472"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CustDataCtrl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DECIMAL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -270,9 +266,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0:客戶申請(案件申請時丟錯誤訊息)
-1:滿五年自動寫入(案件申請自動刪除)
-2:解除</t>
+    <t>CustDataCtrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:客戶申請(案件申請時丟錯誤訊息)
+2:滿五年自動寫入(案件申請自動刪除)
+3:解除</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -824,10 +824,10 @@
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -837,7 +837,7 @@
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>22</v>
@@ -941,7 +941,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="18">
         <v>7</v>
@@ -973,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>30</v>
@@ -986,7 +986,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -994,13 +994,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="18">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>3</v>
@@ -1057,7 +1057,7 @@
         <v>15</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="18">
         <v>6</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
